--- a/最终解3.xlsx
+++ b/最终解3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PythonProjects\TimeTabling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AEDF45F-4FD3-4BD4-B68D-5B6EDF80E252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D217BA3C-9709-4714-BFE1-8DA7F47BFCEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{3BB9116B-1F48-406D-A4E9-28C87066DAAC}"/>
   </bookViews>
@@ -446,260 +446,260 @@
   <sheetData>
     <row r="1" spans="1:236" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="B1">
-        <v>1098</v>
+        <v>679</v>
       </c>
       <c r="C1">
-        <v>257</v>
+        <v>979</v>
       </c>
       <c r="D1">
-        <v>1106</v>
+        <v>817</v>
       </c>
       <c r="E1">
-        <v>803</v>
+        <v>834</v>
       </c>
       <c r="F1">
-        <v>225</v>
+        <v>1200</v>
       </c>
       <c r="G1">
-        <v>421</v>
+        <v>931</v>
       </c>
       <c r="H1">
+        <v>891</v>
+      </c>
+      <c r="I1">
+        <v>391</v>
+      </c>
+      <c r="J1">
+        <v>1200</v>
+      </c>
+      <c r="K1">
+        <v>614</v>
+      </c>
+      <c r="L1">
+        <v>925</v>
+      </c>
+      <c r="M1">
+        <v>669</v>
+      </c>
+      <c r="N1">
+        <v>751</v>
+      </c>
+      <c r="O1">
+        <v>756</v>
+      </c>
+      <c r="P1">
+        <v>861</v>
+      </c>
+      <c r="Q1">
+        <v>1200</v>
+      </c>
+      <c r="R1">
+        <v>780</v>
+      </c>
+      <c r="S1">
+        <v>1200</v>
+      </c>
+      <c r="T1">
+        <v>380</v>
+      </c>
+      <c r="U1">
+        <v>1043</v>
+      </c>
+      <c r="V1">
+        <v>303</v>
+      </c>
+      <c r="W1">
+        <v>1004</v>
+      </c>
+      <c r="X1">
+        <v>969</v>
+      </c>
+      <c r="Y1">
+        <v>447</v>
+      </c>
+      <c r="Z1">
+        <v>587</v>
+      </c>
+      <c r="AA1">
+        <v>762</v>
+      </c>
+      <c r="AB1">
+        <v>484</v>
+      </c>
+      <c r="AC1">
+        <v>842</v>
+      </c>
+      <c r="AD1">
+        <v>163</v>
+      </c>
+      <c r="AE1">
+        <v>199</v>
+      </c>
+      <c r="AF1">
+        <v>692</v>
+      </c>
+      <c r="AG1">
+        <v>907</v>
+      </c>
+      <c r="AH1">
+        <v>518</v>
+      </c>
+      <c r="AI1">
+        <v>755</v>
+      </c>
+      <c r="AJ1">
+        <v>340</v>
+      </c>
+      <c r="AK1">
+        <v>875</v>
+      </c>
+      <c r="AL1">
+        <v>120</v>
+      </c>
+      <c r="AM1">
+        <v>611</v>
+      </c>
+      <c r="AN1">
+        <v>894</v>
+      </c>
+      <c r="AO1">
+        <v>0</v>
+      </c>
+      <c r="AP1">
+        <v>592</v>
+      </c>
+      <c r="AQ1">
+        <v>688</v>
+      </c>
+      <c r="AR1">
+        <v>573</v>
+      </c>
+      <c r="AS1">
+        <v>488</v>
+      </c>
+      <c r="AT1">
+        <v>0</v>
+      </c>
+      <c r="AU1">
+        <v>0</v>
+      </c>
+      <c r="AV1">
         <v>711</v>
       </c>
-      <c r="I1">
-        <v>1154</v>
-      </c>
-      <c r="J1">
-        <v>1162</v>
-      </c>
-      <c r="K1">
-        <v>290</v>
-      </c>
-      <c r="L1">
-        <v>1168</v>
-      </c>
-      <c r="M1">
-        <v>1154</v>
-      </c>
-      <c r="N1">
+      <c r="AW1">
+        <v>535</v>
+      </c>
+      <c r="AX1">
+        <v>879</v>
+      </c>
+      <c r="AY1">
+        <v>0</v>
+      </c>
+      <c r="AZ1">
+        <v>0</v>
+      </c>
+      <c r="BA1">
+        <v>1200</v>
+      </c>
+      <c r="BB1">
+        <v>578</v>
+      </c>
+      <c r="BC1">
+        <v>120</v>
+      </c>
+      <c r="BD1">
+        <v>0</v>
+      </c>
+      <c r="BE1">
+        <v>0</v>
+      </c>
+      <c r="BF1">
+        <v>863</v>
+      </c>
+      <c r="BG1">
+        <v>497</v>
+      </c>
+      <c r="BH1">
+        <v>120</v>
+      </c>
+      <c r="BI1">
+        <v>883</v>
+      </c>
+      <c r="BJ1">
+        <v>0</v>
+      </c>
+      <c r="BK1">
+        <v>0</v>
+      </c>
+      <c r="BL1">
+        <v>622</v>
+      </c>
+      <c r="BM1">
+        <v>409</v>
+      </c>
+      <c r="BN1">
+        <v>0</v>
+      </c>
+      <c r="BO1">
+        <v>0</v>
+      </c>
+      <c r="BP1">
+        <v>827</v>
+      </c>
+      <c r="BQ1">
+        <v>697</v>
+      </c>
+      <c r="BR1">
+        <v>0</v>
+      </c>
+      <c r="BS1">
+        <v>0</v>
+      </c>
+      <c r="BT1">
+        <v>999</v>
+      </c>
+      <c r="BU1">
+        <v>678</v>
+      </c>
+      <c r="BV1">
+        <v>325</v>
+      </c>
+      <c r="BW1">
+        <v>0</v>
+      </c>
+      <c r="BX1">
+        <v>0</v>
+      </c>
+      <c r="BY1">
+        <v>841</v>
+      </c>
+      <c r="BZ1">
+        <v>322</v>
+      </c>
+      <c r="CA1">
+        <v>625</v>
+      </c>
+      <c r="CB1">
+        <v>0</v>
+      </c>
+      <c r="CC1">
+        <v>0</v>
+      </c>
+      <c r="CD1">
+        <v>1075</v>
+      </c>
+      <c r="CE1">
+        <v>320</v>
+      </c>
+      <c r="CF1">
+        <v>805</v>
+      </c>
+      <c r="CG1">
         <v>644</v>
       </c>
-      <c r="O1">
-        <v>984</v>
-      </c>
-      <c r="P1">
-        <v>273</v>
-      </c>
-      <c r="Q1">
-        <v>576</v>
-      </c>
-      <c r="R1">
-        <v>1109</v>
-      </c>
-      <c r="S1">
-        <v>976</v>
-      </c>
-      <c r="T1">
-        <v>1156</v>
-      </c>
-      <c r="U1">
-        <v>828</v>
-      </c>
-      <c r="V1">
-        <v>159</v>
-      </c>
-      <c r="W1">
-        <v>1037</v>
-      </c>
-      <c r="X1">
-        <v>1129</v>
-      </c>
-      <c r="Y1">
-        <v>853</v>
-      </c>
-      <c r="Z1">
-        <v>938</v>
-      </c>
-      <c r="AA1">
-        <v>923</v>
-      </c>
-      <c r="AB1">
-        <v>544</v>
-      </c>
-      <c r="AC1">
-        <v>828</v>
-      </c>
-      <c r="AD1">
-        <v>305</v>
-      </c>
-      <c r="AE1">
-        <v>883</v>
-      </c>
-      <c r="AF1">
-        <v>154</v>
-      </c>
-      <c r="AG1">
-        <v>419</v>
-      </c>
-      <c r="AH1">
-        <v>170</v>
-      </c>
-      <c r="AI1">
-        <v>225</v>
-      </c>
-      <c r="AJ1">
-        <v>1009</v>
-      </c>
-      <c r="AK1">
-        <v>870</v>
-      </c>
-      <c r="AL1">
-        <v>462</v>
-      </c>
-      <c r="AM1">
-        <v>1146</v>
-      </c>
-      <c r="AN1">
-        <v>157</v>
-      </c>
-      <c r="AO1">
-        <v>0</v>
-      </c>
-      <c r="AP1">
-        <v>532</v>
-      </c>
-      <c r="AQ1">
-        <v>947</v>
-      </c>
-      <c r="AR1">
-        <v>979</v>
-      </c>
-      <c r="AS1">
-        <v>322</v>
-      </c>
-      <c r="AT1">
-        <v>0</v>
-      </c>
-      <c r="AU1">
-        <v>0</v>
-      </c>
-      <c r="AV1">
-        <v>818</v>
-      </c>
-      <c r="AW1">
-        <v>886</v>
-      </c>
-      <c r="AX1">
-        <v>935</v>
-      </c>
-      <c r="AY1">
-        <v>0</v>
-      </c>
-      <c r="AZ1">
-        <v>0</v>
-      </c>
-      <c r="BA1">
-        <v>828</v>
-      </c>
-      <c r="BB1">
-        <v>296</v>
-      </c>
-      <c r="BC1">
-        <v>249</v>
-      </c>
-      <c r="BD1">
-        <v>0</v>
-      </c>
-      <c r="BE1">
-        <v>0</v>
-      </c>
-      <c r="BF1">
-        <v>488</v>
-      </c>
-      <c r="BG1">
-        <v>752</v>
-      </c>
-      <c r="BH1">
-        <v>362</v>
-      </c>
-      <c r="BI1">
-        <v>931</v>
-      </c>
-      <c r="BJ1">
-        <v>0</v>
-      </c>
-      <c r="BK1">
-        <v>0</v>
-      </c>
-      <c r="BL1">
-        <v>875</v>
-      </c>
-      <c r="BM1">
-        <v>1082</v>
-      </c>
-      <c r="BN1">
-        <v>0</v>
-      </c>
-      <c r="BO1">
-        <v>0</v>
-      </c>
-      <c r="BP1">
-        <v>270</v>
-      </c>
-      <c r="BQ1">
-        <v>281</v>
-      </c>
-      <c r="BR1">
-        <v>0</v>
-      </c>
-      <c r="BS1">
-        <v>0</v>
-      </c>
-      <c r="BT1">
-        <v>395</v>
-      </c>
-      <c r="BU1">
-        <v>999</v>
-      </c>
-      <c r="BV1">
-        <v>383</v>
-      </c>
-      <c r="BW1">
-        <v>0</v>
-      </c>
-      <c r="BX1">
-        <v>0</v>
-      </c>
-      <c r="BY1">
-        <v>332</v>
-      </c>
-      <c r="BZ1">
-        <v>391</v>
-      </c>
-      <c r="CA1">
-        <v>785</v>
-      </c>
-      <c r="CB1">
-        <v>0</v>
-      </c>
-      <c r="CC1">
-        <v>0</v>
-      </c>
-      <c r="CD1">
-        <v>1017</v>
-      </c>
-      <c r="CE1">
-        <v>752</v>
-      </c>
-      <c r="CF1">
-        <v>714</v>
-      </c>
-      <c r="CG1">
-        <v>1111</v>
-      </c>
       <c r="CH1">
         <v>0</v>
       </c>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="CJ1">
-        <v>934</v>
+        <v>959</v>
       </c>
       <c r="CK1">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>0</v>
       </c>
       <c r="CM1">
-        <v>202</v>
+        <v>120</v>
       </c>
       <c r="CN1">
-        <v>178</v>
+        <v>862</v>
       </c>
       <c r="CO1">
-        <v>693</v>
+        <v>731</v>
       </c>
       <c r="CP1">
-        <v>962</v>
+        <v>898</v>
       </c>
       <c r="CQ1">
         <v>0</v>
@@ -734,29 +734,29 @@
         <v>0</v>
       </c>
       <c r="CS1">
+        <v>928</v>
+      </c>
+      <c r="CT1">
+        <v>201</v>
+      </c>
+      <c r="CU1">
+        <v>620</v>
+      </c>
+      <c r="CV1">
+        <v>0</v>
+      </c>
+      <c r="CW1">
+        <v>0</v>
+      </c>
+      <c r="CX1">
+        <v>758</v>
+      </c>
+      <c r="CY1">
+        <v>426</v>
+      </c>
+      <c r="CZ1">
         <v>734</v>
       </c>
-      <c r="CT1">
-        <v>627</v>
-      </c>
-      <c r="CU1">
-        <v>133</v>
-      </c>
-      <c r="CV1">
-        <v>0</v>
-      </c>
-      <c r="CW1">
-        <v>0</v>
-      </c>
-      <c r="CX1">
-        <v>978</v>
-      </c>
-      <c r="CY1">
-        <v>456</v>
-      </c>
-      <c r="CZ1">
-        <v>691</v>
-      </c>
       <c r="DA1">
         <v>0</v>
       </c>
@@ -764,16 +764,16 @@
         <v>0</v>
       </c>
       <c r="DC1">
-        <v>404</v>
+        <v>1148</v>
       </c>
       <c r="DD1">
-        <v>826</v>
+        <v>642</v>
       </c>
       <c r="DE1">
-        <v>864</v>
+        <v>444</v>
       </c>
       <c r="DF1">
-        <v>928</v>
+        <v>317</v>
       </c>
       <c r="DG1">
         <v>0</v>
@@ -782,10 +782,10 @@
         <v>0</v>
       </c>
       <c r="DI1">
-        <v>367</v>
+        <v>902</v>
       </c>
       <c r="DJ1">
-        <v>1106</v>
+        <v>346</v>
       </c>
       <c r="DK1">
         <v>0</v>
@@ -794,10 +794,10 @@
         <v>0</v>
       </c>
       <c r="DM1">
-        <v>701</v>
+        <v>707</v>
       </c>
       <c r="DN1">
-        <v>1196</v>
+        <v>624</v>
       </c>
       <c r="DO1">
         <v>0</v>
@@ -806,13 +806,13 @@
         <v>0</v>
       </c>
       <c r="DQ1">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="DR1">
-        <v>1159</v>
+        <v>561</v>
       </c>
       <c r="DS1">
-        <v>125</v>
+        <v>1200</v>
       </c>
       <c r="DT1">
         <v>0</v>
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="DV1">
-        <v>1058</v>
+        <v>952</v>
       </c>
       <c r="DW1">
-        <v>211</v>
+        <v>574</v>
       </c>
       <c r="DX1">
-        <v>552</v>
+        <v>579</v>
       </c>
       <c r="DY1">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="EA1">
-        <v>586</v>
+        <v>702</v>
       </c>
       <c r="EB1">
-        <v>1103</v>
+        <v>1073</v>
       </c>
       <c r="EC1">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="ED1">
-        <v>405</v>
+        <v>425</v>
       </c>
       <c r="EE1">
         <v>0</v>
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="EG1">
-        <v>1059</v>
+        <v>766</v>
       </c>
       <c r="EH1">
         <v>0</v>
@@ -1094,7 +1094,7 @@
         <v>1</v>
       </c>
       <c r="HI1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="HJ1">
         <v>2</v>
@@ -1103,7 +1103,7 @@
         <v>3</v>
       </c>
       <c r="HL1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="HM1">
         <v>5</v>
@@ -1124,7 +1124,7 @@
         <v>10</v>
       </c>
       <c r="HS1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="HT1">
         <v>2</v>
@@ -1133,7 +1133,7 @@
         <v>3</v>
       </c>
       <c r="HV1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="HW1">
         <v>5</v>

--- a/最终解3.xlsx
+++ b/最终解3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PythonProjects\TimeTabling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D217BA3C-9709-4714-BFE1-8DA7F47BFCEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D408F7-2178-4CD8-AE70-1B994B7ABB8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{3BB9116B-1F48-406D-A4E9-28C87066DAAC}"/>
   </bookViews>
@@ -439,7 +439,7 @@
   <dimension ref="A1:IB1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:IB1"/>
+      <selection sqref="A1:HH1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -449,415 +449,415 @@
         <v>1200</v>
       </c>
       <c r="B1">
-        <v>679</v>
+        <v>784</v>
       </c>
       <c r="C1">
+        <v>1200</v>
+      </c>
+      <c r="D1">
+        <v>1200</v>
+      </c>
+      <c r="E1">
+        <v>735</v>
+      </c>
+      <c r="F1">
         <v>979</v>
       </c>
-      <c r="D1">
-        <v>817</v>
-      </c>
-      <c r="E1">
-        <v>834</v>
-      </c>
-      <c r="F1">
+      <c r="G1">
         <v>1200</v>
       </c>
-      <c r="G1">
-        <v>931</v>
-      </c>
       <c r="H1">
-        <v>891</v>
+        <v>986</v>
       </c>
       <c r="I1">
+        <v>1162</v>
+      </c>
+      <c r="J1">
+        <v>837</v>
+      </c>
+      <c r="K1">
+        <v>1200</v>
+      </c>
+      <c r="L1">
+        <v>120</v>
+      </c>
+      <c r="M1">
+        <v>326</v>
+      </c>
+      <c r="N1">
+        <v>190</v>
+      </c>
+      <c r="O1">
+        <v>536</v>
+      </c>
+      <c r="P1">
+        <v>267</v>
+      </c>
+      <c r="Q1">
+        <v>758</v>
+      </c>
+      <c r="R1">
+        <v>1196</v>
+      </c>
+      <c r="S1">
+        <v>729</v>
+      </c>
+      <c r="T1">
+        <v>290</v>
+      </c>
+      <c r="U1">
+        <v>0</v>
+      </c>
+      <c r="V1">
+        <v>1138</v>
+      </c>
+      <c r="W1">
+        <v>387</v>
+      </c>
+      <c r="X1">
+        <v>221</v>
+      </c>
+      <c r="Y1">
+        <v>699</v>
+      </c>
+      <c r="Z1">
+        <v>0</v>
+      </c>
+      <c r="AA1">
+        <v>0</v>
+      </c>
+      <c r="AB1">
+        <v>867</v>
+      </c>
+      <c r="AC1">
+        <v>915</v>
+      </c>
+      <c r="AD1">
+        <v>120</v>
+      </c>
+      <c r="AE1">
+        <v>0</v>
+      </c>
+      <c r="AF1">
+        <v>0</v>
+      </c>
+      <c r="AG1">
+        <v>777</v>
+      </c>
+      <c r="AH1">
+        <v>653</v>
+      </c>
+      <c r="AI1">
+        <v>793</v>
+      </c>
+      <c r="AJ1">
+        <v>0</v>
+      </c>
+      <c r="AK1">
+        <v>0</v>
+      </c>
+      <c r="AL1">
+        <v>871</v>
+      </c>
+      <c r="AM1">
+        <v>524</v>
+      </c>
+      <c r="AN1">
+        <v>851</v>
+      </c>
+      <c r="AO1">
+        <v>452</v>
+      </c>
+      <c r="AP1">
+        <v>0</v>
+      </c>
+      <c r="AQ1">
+        <v>0</v>
+      </c>
+      <c r="AR1">
+        <v>783</v>
+      </c>
+      <c r="AS1">
+        <v>453</v>
+      </c>
+      <c r="AT1">
+        <v>0</v>
+      </c>
+      <c r="AU1">
+        <v>0</v>
+      </c>
+      <c r="AV1">
+        <v>153</v>
+      </c>
+      <c r="AW1">
+        <v>1145</v>
+      </c>
+      <c r="AX1">
+        <v>0</v>
+      </c>
+      <c r="AY1">
+        <v>0</v>
+      </c>
+      <c r="AZ1">
+        <v>398</v>
+      </c>
+      <c r="BA1">
+        <v>814</v>
+      </c>
+      <c r="BB1">
+        <v>977</v>
+      </c>
+      <c r="BC1">
+        <v>0</v>
+      </c>
+      <c r="BD1">
+        <v>0</v>
+      </c>
+      <c r="BE1">
+        <v>168</v>
+      </c>
+      <c r="BF1">
+        <v>496</v>
+      </c>
+      <c r="BG1">
+        <v>996</v>
+      </c>
+      <c r="BH1">
+        <v>0</v>
+      </c>
+      <c r="BI1">
+        <v>0</v>
+      </c>
+      <c r="BJ1">
+        <v>566</v>
+      </c>
+      <c r="BK1">
+        <v>697</v>
+      </c>
+      <c r="BL1">
+        <v>616</v>
+      </c>
+      <c r="BM1">
+        <v>868</v>
+      </c>
+      <c r="BN1">
+        <v>0</v>
+      </c>
+      <c r="BO1">
+        <v>0</v>
+      </c>
+      <c r="BP1">
+        <v>878</v>
+      </c>
+      <c r="BQ1">
+        <v>0</v>
+      </c>
+      <c r="BR1">
+        <v>0</v>
+      </c>
+      <c r="BS1">
+        <v>748</v>
+      </c>
+      <c r="BT1">
+        <v>120</v>
+      </c>
+      <c r="BU1">
+        <v>1181</v>
+      </c>
+      <c r="BV1">
+        <v>694</v>
+      </c>
+      <c r="BW1">
+        <v>0</v>
+      </c>
+      <c r="BX1">
+        <v>0</v>
+      </c>
+      <c r="BY1">
+        <v>572</v>
+      </c>
+      <c r="BZ1">
+        <v>1004</v>
+      </c>
+      <c r="CA1">
+        <v>506</v>
+      </c>
+      <c r="CB1">
+        <v>0</v>
+      </c>
+      <c r="CC1">
+        <v>0</v>
+      </c>
+      <c r="CD1">
+        <v>346</v>
+      </c>
+      <c r="CE1">
+        <v>1151</v>
+      </c>
+      <c r="CF1">
+        <v>486</v>
+      </c>
+      <c r="CG1">
+        <v>0</v>
+      </c>
+      <c r="CH1">
+        <v>0</v>
+      </c>
+      <c r="CI1">
+        <v>1095</v>
+      </c>
+      <c r="CJ1">
+        <v>814</v>
+      </c>
+      <c r="CK1">
+        <v>437</v>
+      </c>
+      <c r="CL1">
+        <v>384</v>
+      </c>
+      <c r="CM1">
+        <v>0</v>
+      </c>
+      <c r="CN1">
+        <v>0</v>
+      </c>
+      <c r="CO1">
         <v>391</v>
       </c>
-      <c r="J1">
-        <v>1200</v>
-      </c>
-      <c r="K1">
-        <v>614</v>
-      </c>
-      <c r="L1">
-        <v>925</v>
-      </c>
-      <c r="M1">
-        <v>669</v>
-      </c>
-      <c r="N1">
-        <v>751</v>
-      </c>
-      <c r="O1">
-        <v>756</v>
-      </c>
-      <c r="P1">
-        <v>861</v>
-      </c>
-      <c r="Q1">
-        <v>1200</v>
-      </c>
-      <c r="R1">
-        <v>780</v>
-      </c>
-      <c r="S1">
-        <v>1200</v>
-      </c>
-      <c r="T1">
-        <v>380</v>
-      </c>
-      <c r="U1">
-        <v>1043</v>
-      </c>
-      <c r="V1">
-        <v>303</v>
-      </c>
-      <c r="W1">
-        <v>1004</v>
-      </c>
-      <c r="X1">
-        <v>969</v>
-      </c>
-      <c r="Y1">
-        <v>447</v>
-      </c>
-      <c r="Z1">
-        <v>587</v>
-      </c>
-      <c r="AA1">
-        <v>762</v>
-      </c>
-      <c r="AB1">
-        <v>484</v>
-      </c>
-      <c r="AC1">
-        <v>842</v>
-      </c>
-      <c r="AD1">
-        <v>163</v>
-      </c>
-      <c r="AE1">
-        <v>199</v>
-      </c>
-      <c r="AF1">
-        <v>692</v>
-      </c>
-      <c r="AG1">
-        <v>907</v>
-      </c>
-      <c r="AH1">
-        <v>518</v>
-      </c>
-      <c r="AI1">
-        <v>755</v>
-      </c>
-      <c r="AJ1">
-        <v>340</v>
-      </c>
-      <c r="AK1">
-        <v>875</v>
-      </c>
-      <c r="AL1">
-        <v>120</v>
-      </c>
-      <c r="AM1">
-        <v>611</v>
-      </c>
-      <c r="AN1">
-        <v>894</v>
-      </c>
-      <c r="AO1">
-        <v>0</v>
-      </c>
-      <c r="AP1">
-        <v>592</v>
-      </c>
-      <c r="AQ1">
-        <v>688</v>
-      </c>
-      <c r="AR1">
-        <v>573</v>
-      </c>
-      <c r="AS1">
+      <c r="CP1">
+        <v>1049</v>
+      </c>
+      <c r="CQ1">
+        <v>0</v>
+      </c>
+      <c r="CR1">
+        <v>0</v>
+      </c>
+      <c r="CS1">
+        <v>258</v>
+      </c>
+      <c r="CT1">
+        <v>976</v>
+      </c>
+      <c r="CU1">
+        <v>0</v>
+      </c>
+      <c r="CV1">
+        <v>0</v>
+      </c>
+      <c r="CW1">
+        <v>444</v>
+      </c>
+      <c r="CX1">
+        <v>653</v>
+      </c>
+      <c r="CY1">
+        <v>1103</v>
+      </c>
+      <c r="CZ1">
+        <v>0</v>
+      </c>
+      <c r="DA1">
+        <v>0</v>
+      </c>
+      <c r="DB1">
+        <v>1047</v>
+      </c>
+      <c r="DC1">
+        <v>542</v>
+      </c>
+      <c r="DD1">
+        <v>358</v>
+      </c>
+      <c r="DE1">
+        <v>0</v>
+      </c>
+      <c r="DF1">
+        <v>0</v>
+      </c>
+      <c r="DG1">
+        <v>752</v>
+      </c>
+      <c r="DH1">
+        <v>796</v>
+      </c>
+      <c r="DI1">
+        <v>308</v>
+      </c>
+      <c r="DJ1">
+        <v>869</v>
+      </c>
+      <c r="DK1">
+        <v>0</v>
+      </c>
+      <c r="DL1">
+        <v>0</v>
+      </c>
+      <c r="DM1">
         <v>488</v>
       </c>
-      <c r="AT1">
-        <v>0</v>
-      </c>
-      <c r="AU1">
-        <v>0</v>
-      </c>
-      <c r="AV1">
-        <v>711</v>
-      </c>
-      <c r="AW1">
-        <v>535</v>
-      </c>
-      <c r="AX1">
-        <v>879</v>
-      </c>
-      <c r="AY1">
-        <v>0</v>
-      </c>
-      <c r="AZ1">
-        <v>0</v>
-      </c>
-      <c r="BA1">
-        <v>1200</v>
-      </c>
-      <c r="BB1">
-        <v>578</v>
-      </c>
-      <c r="BC1">
-        <v>120</v>
-      </c>
-      <c r="BD1">
-        <v>0</v>
-      </c>
-      <c r="BE1">
-        <v>0</v>
-      </c>
-      <c r="BF1">
-        <v>863</v>
-      </c>
-      <c r="BG1">
-        <v>497</v>
-      </c>
-      <c r="BH1">
-        <v>120</v>
-      </c>
-      <c r="BI1">
-        <v>883</v>
-      </c>
-      <c r="BJ1">
-        <v>0</v>
-      </c>
-      <c r="BK1">
-        <v>0</v>
-      </c>
-      <c r="BL1">
-        <v>622</v>
-      </c>
-      <c r="BM1">
-        <v>409</v>
-      </c>
-      <c r="BN1">
-        <v>0</v>
-      </c>
-      <c r="BO1">
-        <v>0</v>
-      </c>
-      <c r="BP1">
-        <v>827</v>
-      </c>
-      <c r="BQ1">
-        <v>697</v>
-      </c>
-      <c r="BR1">
-        <v>0</v>
-      </c>
-      <c r="BS1">
-        <v>0</v>
-      </c>
-      <c r="BT1">
-        <v>999</v>
-      </c>
-      <c r="BU1">
-        <v>678</v>
-      </c>
-      <c r="BV1">
-        <v>325</v>
-      </c>
-      <c r="BW1">
-        <v>0</v>
-      </c>
-      <c r="BX1">
-        <v>0</v>
-      </c>
-      <c r="BY1">
-        <v>841</v>
-      </c>
-      <c r="BZ1">
-        <v>322</v>
-      </c>
-      <c r="CA1">
-        <v>625</v>
-      </c>
-      <c r="CB1">
-        <v>0</v>
-      </c>
-      <c r="CC1">
-        <v>0</v>
-      </c>
-      <c r="CD1">
-        <v>1075</v>
-      </c>
-      <c r="CE1">
-        <v>320</v>
-      </c>
-      <c r="CF1">
-        <v>805</v>
-      </c>
-      <c r="CG1">
-        <v>644</v>
-      </c>
-      <c r="CH1">
-        <v>0</v>
-      </c>
-      <c r="CI1">
-        <v>0</v>
-      </c>
-      <c r="CJ1">
-        <v>959</v>
-      </c>
-      <c r="CK1">
-        <v>0</v>
-      </c>
-      <c r="CL1">
-        <v>0</v>
-      </c>
-      <c r="CM1">
-        <v>120</v>
-      </c>
-      <c r="CN1">
-        <v>862</v>
-      </c>
-      <c r="CO1">
-        <v>731</v>
-      </c>
-      <c r="CP1">
-        <v>898</v>
-      </c>
-      <c r="CQ1">
-        <v>0</v>
-      </c>
-      <c r="CR1">
-        <v>0</v>
-      </c>
-      <c r="CS1">
-        <v>928</v>
-      </c>
-      <c r="CT1">
-        <v>201</v>
-      </c>
-      <c r="CU1">
-        <v>620</v>
-      </c>
-      <c r="CV1">
-        <v>0</v>
-      </c>
-      <c r="CW1">
-        <v>0</v>
-      </c>
-      <c r="CX1">
-        <v>758</v>
-      </c>
-      <c r="CY1">
-        <v>426</v>
-      </c>
-      <c r="CZ1">
-        <v>734</v>
-      </c>
-      <c r="DA1">
-        <v>0</v>
-      </c>
-      <c r="DB1">
-        <v>0</v>
-      </c>
-      <c r="DC1">
-        <v>1148</v>
-      </c>
-      <c r="DD1">
-        <v>642</v>
-      </c>
-      <c r="DE1">
-        <v>444</v>
-      </c>
-      <c r="DF1">
-        <v>317</v>
-      </c>
-      <c r="DG1">
-        <v>0</v>
-      </c>
-      <c r="DH1">
-        <v>0</v>
-      </c>
-      <c r="DI1">
-        <v>902</v>
-      </c>
-      <c r="DJ1">
-        <v>346</v>
-      </c>
-      <c r="DK1">
-        <v>0</v>
-      </c>
-      <c r="DL1">
-        <v>0</v>
-      </c>
-      <c r="DM1">
-        <v>707</v>
-      </c>
       <c r="DN1">
-        <v>624</v>
+        <v>0</v>
       </c>
       <c r="DO1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DP1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DQ1">
-        <v>254</v>
+        <v>1</v>
       </c>
       <c r="DR1">
-        <v>561</v>
+        <v>1</v>
       </c>
       <c r="DS1">
-        <v>1200</v>
+        <v>1</v>
       </c>
       <c r="DT1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DU1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DV1">
-        <v>952</v>
+        <v>1</v>
       </c>
       <c r="DW1">
-        <v>574</v>
+        <v>1</v>
       </c>
       <c r="DX1">
-        <v>579</v>
+        <v>1</v>
       </c>
       <c r="DY1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DZ1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EA1">
-        <v>702</v>
+        <v>1</v>
       </c>
       <c r="EB1">
-        <v>1073</v>
+        <v>1</v>
       </c>
       <c r="EC1">
-        <v>329</v>
+        <v>1</v>
       </c>
       <c r="ED1">
-        <v>425</v>
+        <v>1</v>
       </c>
       <c r="EE1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EF1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EG1">
-        <v>766</v>
+        <v>1</v>
       </c>
       <c r="EH1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EI1">
         <v>1</v>
@@ -1037,61 +1037,61 @@
         <v>1</v>
       </c>
       <c r="GP1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="GQ1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="GR1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="GS1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="GT1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="GU1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="GV1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="GW1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="GX1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="GY1">
         <v>1</v>
       </c>
       <c r="GZ1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="HA1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="HB1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="HC1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="HD1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="HE1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="HF1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="HG1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="HH1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="HI1">
         <v>1</v>
